--- a/Buisness/Petty Cash/ABSC Communications.xlsx
+++ b/Buisness/Petty Cash/ABSC Communications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmacgilliv\Downloads\schoolwork\Buisness\Petty Cash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E844EFB7-F80A-4BBE-963A-57A9BFA01DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E8D796-2795-46CC-8E47-54E4C8C3DCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{24F8BEDE-B5B0-4D7A-AD66-37823037CE86}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{24F8BEDE-B5B0-4D7A-AD66-37823037CE86}"/>
   </bookViews>
   <sheets>
     <sheet name="Petty Cash Book" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,6 +149,15 @@
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -168,10 +177,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -203,7 +212,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Analysis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> of Payments as of 24/1/21</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -1071,7 +1139,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{04ECDEA7-B9DA-4CAC-9D63-D2C5CD1875C6}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1410,16 +1478,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3476F7FD-14A4-4DBF-85D6-2C07666DB11F}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
@@ -1428,18 +1496,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1447,15 +1515,15 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +1802,7 @@
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="7">
+      <c r="E15" s="9">
         <f>SUM(E6:E14)</f>
         <v>155.6</v>
       </c>
@@ -1777,7 +1845,7 @@
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <f>D4+D5</f>
         <v>170</v>
       </c>
